--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_247.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_247.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,624 +488,658 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1465395480225989</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G:7', 'D', 'G:7', 'D']]</t>
-        </is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07067627494456763</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C:7', 'G', 'C:7', 'G']]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.440816, 28.313197)]</t>
+          <t>[['E/4', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(170.09, 173.77)]</t>
+          <t>[('0:00:37.936167', '0:00:41.779070')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:00:06.779000', '0:00:09.340000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06646676661669165</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.604557, 16.37009)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(35.04, 42.61)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2373626373626374</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[('0:01:17.720000', '0:01:28'), ('0:00:18.320000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2064777327935223</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2435064935064935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.000366)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(148.857891, 156.114126)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:06.740000', '0:00:12.160000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:51.690000', '0:00:55.720000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08777777777777777</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'G', 'A']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3650793650793651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'B']]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(70.981661, 72.955356)]</t>
+          <t>[['G/5', 'D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(33.344378, 38.139299)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:21.391000', '0:00:26.250000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1182352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(26.115071, 38.793167), (17.581738, 30.271443)]</t>
+          <t>[['E', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.3, 15.56), (16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:43.350000', '0:01:46.640000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:15.216000', '0:00:28.278000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['D:maj/A', 'A:maj', 'A:7', 'D:maj/A']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(40.49, 50.26), (0.522, 7.205)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(58.08, 69.44), (137.32, 153.72)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07338709677419356</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['A', 'D/5', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2371794871794872</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(148.857891, 156.114126)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.54, 13.4)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1417593198168738</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:03.240000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:18.460000', '0:00:21.820000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(132.3, 136.56)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1098901098901099</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'F:(3,5)', 'A:min/E']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'F', 'A:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(68.48, 85.04)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(56.35, 63.977)]</t>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1053571428571429</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(65.382154, 74.101247)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(73.74, 83.38)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(89.08, 98.1)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.66, 7.98)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.7, 18.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.8, 21.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
